--- a/biology/Botanique/Caro_Benigno_Massalongo/Caro_Benigno_Massalongo.xlsx
+++ b/biology/Botanique/Caro_Benigno_Massalongo/Caro_Benigno_Massalongo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caro Benigno Massalongo, né le 25 mars 1852 à Vérone et mort le 18 mars 1928 dans cette même ville, est un botaniste italien qui s'est spécialisé dans l'hépatocologie. Il est le fils du paléontologue Abramo Bartolommeo Massalongo (1824-1860). Son abréviation botanique est C.Massal.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Massalongo étudie la botanique à l'université de Padoue, recevant son diplôme de doctorat en 1873. Il est nommé en 1878 professeur de botanique à l'université de Ferrare. Caro Massalongo est l'auteur de 264 publications botaniques[1]. Il est parmi les premiers à avoir effectué des études systématiques et scientifiques des galles[2].
-À partir de 1880, il étudie les oomycètes parasites et fongiques : Peronospora viticola responsable du mildiou de la vigne, l'agent pathogène responsable du mildiou du chanvre et des champignons microscopiques des genres Cystopus, Taphrina et Ramularia. Il a développé de beaux dessins à l'aquarelle de certaines espèces d'hyménomycètes. Grâce à ses travaux, le nombre d'espèces de champignons connues à Vérone est passé de 958 à 1 645[3].
-Il s'est également occupé des insectes-mouches de la famille des Acarocecidae. En plus de ses recherches sur la nature, il s'est également occupé d'historiographie, a écrit des nécrologies et des biographies de botanistes et des commentaires sur les œuvres d'auteurs antiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Massalongo étudie la botanique à l'université de Padoue, recevant son diplôme de doctorat en 1873. Il est nommé en 1878 professeur de botanique à l'université de Ferrare. Caro Massalongo est l'auteur de 264 publications botaniques. Il est parmi les premiers à avoir effectué des études systématiques et scientifiques des galles.
+À partir de 1880, il étudie les oomycètes parasites et fongiques : Peronospora viticola responsable du mildiou de la vigne, l'agent pathogène responsable du mildiou du chanvre et des champignons microscopiques des genres Cystopus, Taphrina et Ramularia. Il a développé de beaux dessins à l'aquarelle de certaines espèces d'hyménomycètes. Grâce à ses travaux, le nombre d'espèces de champignons connues à Vérone est passé de 958 à 1 645.
+Il s'est également occupé des insectes-mouches de la famille des Acarocecidae. En plus de ses recherches sur la nature, il s'est également occupé d'historiographie, a écrit des nécrologies et des biographies de botanistes et des commentaires sur les œuvres d'auteurs antiques.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Massalongiella, (famille des Nitschkiaceae), autorité taxonomique Carlos Luigi Spegazzini (1889).
 Massalongina (Ascomycota), autorité taxonomique František Bubák (1916).
-Massalongoa, (famille des Aytoniaceae), autorité taxonomique Franz Stephani (1905)[4].</t>
+Massalongoa, (famille des Aytoniaceae), autorité taxonomique Franz Stephani (1905).</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Quelques travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En langue italienne
 Le galle nella flora italica (Entomocecidii), 1893 – Plant galls of Italy (Entomocecidia).
@@ -584,11 +602,11 @@
 Le piante crittogame dell'agro Veronese : censimento, 1897
 Le specie italiane del genere Scapania, 1900 .
 Contribuzione alla micologia Veronese. Memorie dell’Accad. d’Agricolt. Arti e Commercio di Verona Ser. 3 65: 153 pp.
-Novità della flora micologica Veronese. Bull. Soc. Bot. Ital. 1900: 254-259[5].
+Novità della flora micologica Veronese. Bull. Soc. Bot. Ital. 1900: 254-259.
 Le Ricciaceae della flora italica, 1912
 Le Jubulaceae della flora Italica, 1912
 Le Lepidoziaceae della flora italica, 1913
-Le "Marchantiaceae" della flora europea, 1916[6].</t>
+Le "Marchantiaceae" della flora europea, 1916.</t>
         </is>
       </c>
     </row>
